--- a/biology/Botanique/Lepista_lilacea/Lepista_lilacea.xlsx
+++ b/biology/Botanique/Lepista_lilacea/Lepista_lilacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepista sordida, la lépiste sordide, est une espèce de champignons basidiomycètes du genre Lepista, de la famille des Tricholomataceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les bois clairs de feuillus et de conifères, également en bordure de route et des chemins de septembre à décembre.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau lisse et un peu gras par temps humide, d'une couleur violet clair, rose lilas ou lilas. Ses lames sont échancrées, serrées, bleues de la même couleur que le chapeau.
 Son pied est cylindrique, droit, lisse, sans bulbe, fibrilleux. Sans anneau.
@@ -574,7 +590,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut le confondre avec Lepista nuda (le pied bleu), avec Lepista personata (le pied violet), Cortinarius azureus et quelques autres lépistes, tous comestibles.
 </t>
@@ -605,7 +623,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Larousse du champignon</t>
         </is>
